--- a/Starting website 2/Rapport d'analyse SEO.xlsx
+++ b/Starting website 2/Rapport d'analyse SEO.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t xml:space="preserve">Catégorie</t>
   </si>
@@ -209,18 +209,6 @@
   </si>
   <si>
     <t xml:space="preserve">Supprimer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header/main/footer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aucune de ces balises n’est presente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ajouter les balises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ligne 36/67/225</t>
   </si>
 </sst>
 </file>
@@ -432,7 +420,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -788,26 +776,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
